--- a/data_config/BattleMap.xlsx
+++ b/data_config/BattleMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="16830" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
